--- a/CodingameIsolation/src/main/resources/view/boss_percentages/ISOLA WIN PERCENTAGES.xlsx
+++ b/CodingameIsolation/src/main/resources/view/boss_percentages/ISOLA WIN PERCENTAGES.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25617"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{351EB543-AFE3-4478-9B13-55C9ED30A129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1D80F26-7851-4300-952A-B1AB09B29066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <t>79.905</t>
   </si>
   <si>
-    <t>NB : the strongest boss is limited to depth 1 in these simulations (but not in the codingamee multi)</t>
+    <t>NB : the strongest boss is limited to depth 1 in these simulations (but not in the codingame multi)</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="F7:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CodingameIsolation/src/main/resources/view/boss_percentages/ISOLA WIN PERCENTAGES.xlsx
+++ b/CodingameIsolation/src/main/resources/view/boss_percentages/ISOLA WIN PERCENTAGES.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25623"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1D80F26-7851-4300-952A-B1AB09B29066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05C6E53D-989C-4360-96D5-772B9EA0D666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <t>79.905</t>
   </si>
   <si>
-    <t>NB : the strongest boss is limited to depth 1 in these simulations (but not in the codingame multi)</t>
+    <t>NB : the strongest boss is limited to depth 2 in these simulations (but not in the codingame multi)</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="F7:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F14" sqref="F14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
